--- a/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
@@ -60,10 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
-    <t>时段销售对比分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1月</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -245,6 +241,10 @@
   </si>
   <si>
     <t>${obj.lastSeven}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货类销售对比分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -892,16 +892,16 @@
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -915,7 +915,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
       <c r="P2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
@@ -934,159 +934,159 @@
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
       <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="Z3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0">
+    <comment ref="A4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>货类销售对比分析</t>
+    <t>类别销售对比分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +349,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -370,7 +375,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -402,7 +407,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -413,7 +418,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -423,7 +428,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -546,7 +551,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -848,15 +853,15 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,7 +934,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
@@ -1006,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1089,28 +1094,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
     </row>
   </sheetData>
@@ -1135,7 +1140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/goodsSaleContrast.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>lijy02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,6 +257,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,15 +859,15 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -934,7 +940,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="14"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" s="16"/>
@@ -1011,111 +1017,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
     </row>
   </sheetData>
@@ -1140,7 +1146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,7 +1160,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
